--- a/Documents/New Data 2.xlsx
+++ b/Documents/New Data 2.xlsx
@@ -5,20 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Globocon\BMS\Application\BakeryManagementSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF9453-1FD3-4F30-8FAD-42BA841C47A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7BA76-8B21-409E-BC7B-30842225EA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Products" sheetId="2" r:id="rId2"/>
-    <sheet name="Ingridents" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Products" sheetId="2" r:id="rId3"/>
+    <sheet name="Ingridents" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$927</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ingridents!$A$1:$H$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Products!$A$1:$I$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$927</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="337">
   <si>
     <t>Product</t>
   </si>
@@ -928,6 +933,120 @@
   <si>
     <t>Code</t>
   </si>
+  <si>
+    <t>GHEE CAKE - 2kg</t>
+  </si>
+  <si>
+    <t>Cake Pwdr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elachi </t>
+  </si>
+  <si>
+    <t>Irish Cake</t>
+  </si>
+  <si>
+    <t>Viva Roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream </t>
+  </si>
+  <si>
+    <t>Flower Cup</t>
+  </si>
+  <si>
+    <t>Marble Tray - 1kg</t>
+  </si>
+  <si>
+    <t>Coco Pwdr</t>
+  </si>
+  <si>
+    <t>White Tray - 1kg</t>
+  </si>
+  <si>
+    <t>Gel - 500gm</t>
+  </si>
+  <si>
+    <t>Baby Rusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biskin </t>
+  </si>
+  <si>
+    <t>Imodakam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt </t>
+  </si>
+  <si>
+    <t>Colorome</t>
+  </si>
+  <si>
+    <t>Sugar Free Rusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milk </t>
+  </si>
+  <si>
+    <t>White Rusk</t>
+  </si>
+  <si>
+    <t>Kiss</t>
+  </si>
+  <si>
+    <t>Dalda</t>
+  </si>
+  <si>
+    <t>Rusk Yellow</t>
+  </si>
+  <si>
+    <t>Imodhakam</t>
+  </si>
+  <si>
+    <t>Green chilly</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Malli Leaves</t>
+  </si>
+  <si>
+    <t>Puthina Leaves</t>
+  </si>
+  <si>
+    <t>Kashmiri Chilli</t>
+  </si>
+  <si>
+    <t>Black Elu</t>
+  </si>
+  <si>
+    <t>White Elu</t>
+  </si>
+  <si>
+    <t>Chicken Masal</t>
+  </si>
+  <si>
+    <t>Meat Masala</t>
+  </si>
+  <si>
+    <t>Black Pepper</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Turmeric</t>
+  </si>
+  <si>
+    <t>Coconut Pwdr</t>
+  </si>
+  <si>
+    <t>Ghee Cake - 2kg</t>
+  </si>
 </sst>
 </file>
 
@@ -985,7 +1104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,6 +1120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1064,6 +1189,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="47" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A680" sqref="A680"/>
+    <sheetView topLeftCell="A913" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H926" sqref="H926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31033,11 +31168,4389 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9A580C-7630-4FDB-A3C1-22D1059170E0}">
+  <dimension ref="A1:I132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>927</v>
+      </c>
+      <c r="B2" s="1">
+        <f>VLOOKUP(C2,Products!A:B,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="7">
+        <f>VLOOKUP(E2,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>TEXT("true","")</f>
+        <v>true</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>"new ProductRawMaterial { Id = "&amp;A2&amp;", ProductId = "&amp;B2&amp;", RawMaterialId = "&amp;D2&amp;", QuantityRequired = "&amp;F2&amp;"f, MapType = """&amp;G2&amp;""", ShowInReport = "&amp;H2&amp;" },"</f>
+        <v>new ProductRawMaterial { Id = 927, ProductId = 117, RawMaterialId = 1, QuantityRequired = 0.4252f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>928</v>
+      </c>
+      <c r="B3" s="1">
+        <f>VLOOKUP(C3,Products!A:B,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="7">
+        <f>VLOOKUP(E3,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H66" si="0">TEXT("true","")</f>
+        <v>true</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I66" si="1">"new ProductRawMaterial { Id = "&amp;A3&amp;", ProductId = "&amp;B3&amp;", RawMaterialId = "&amp;D3&amp;", QuantityRequired = "&amp;F3&amp;"f, MapType = """&amp;G3&amp;""", ShowInReport = "&amp;H3&amp;" },"</f>
+        <v>new ProductRawMaterial { Id = 928, ProductId = 117, RawMaterialId = 2, QuantityRequired = 0.5512f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>929</v>
+      </c>
+      <c r="B4" s="1">
+        <f>VLOOKUP(C4,Products!A:B,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="7">
+        <f>VLOOKUP(E4,Ingridents!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.2205</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 929, ProductId = 117, RawMaterialId = 9, QuantityRequired = 0.2205f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>930</v>
+      </c>
+      <c r="B5" s="1">
+        <f>VLOOKUP(C5,Products!A:B,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="7">
+        <f>VLOOKUP(E5,Ingridents!A:B,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 930, ProductId = 117, RawMaterialId = 7, QuantityRequired = 0.4252f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>931</v>
+      </c>
+      <c r="B6" s="1">
+        <f>VLOOKUP(C6,Products!A:B,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="7">
+        <f>VLOOKUP(E6,Ingridents!A:B,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.8898000000000002E-2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 931, ProductId = 117, RawMaterialId = 34, QuantityRequired = 0.018898f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>932</v>
+      </c>
+      <c r="B7" s="1">
+        <f>VLOOKUP(C7,Products!A:B,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="7">
+        <f>VLOOKUP(E7,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14.17323</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 932, ProductId = 117, RawMaterialId = 6, QuantityRequired = 14.17323f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>933</v>
+      </c>
+      <c r="B8" s="1">
+        <f>VLOOKUP(C8,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="7">
+        <f>VLOOKUP(E8,Ingridents!A:B,2,FALSE)</f>
+        <v>112</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.5254240000000001E-2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 933, ProductId = 71, RawMaterialId = 112, QuantityRequired = 0.01525424f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>934</v>
+      </c>
+      <c r="B9" s="1">
+        <f>VLOOKUP(C9,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="7">
+        <f>VLOOKUP(E9,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.6949999999999999E-3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 934, ProductId = 71, RawMaterialId = 1, QuantityRequired = 0.001695f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>935</v>
+      </c>
+      <c r="B10" s="1">
+        <f>VLOOKUP(C10,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="7">
+        <f>VLOOKUP(E10,Ingridents!A:B,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8.4749999999999999E-3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 935, ProductId = 71, RawMaterialId = 18, QuantityRequired = 0.008475f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>936</v>
+      </c>
+      <c r="B11" s="1">
+        <f>VLOOKUP(C11,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="7">
+        <f>VLOOKUP(E11,Ingridents!A:B,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.6949999999999999E-3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 936, ProductId = 71, RawMaterialId = 35, QuantityRequired = 0.001695f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>937</v>
+      </c>
+      <c r="B12" s="1">
+        <f>VLOOKUP(C12,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="7">
+        <f>VLOOKUP(E12,Ingridents!A:B,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 937, ProductId = 71, RawMaterialId = 7, QuantityRequired = 0.000424f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>938</v>
+      </c>
+      <c r="B13" s="1">
+        <f>VLOOKUP(C13,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="7">
+        <f>VLOOKUP(E13,Ingridents!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 938, ProductId = 71, RawMaterialId = 9, QuantityRequired = 0.000424f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>939</v>
+      </c>
+      <c r="B14" s="1">
+        <f>VLOOKUP(C14,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="7">
+        <f>VLOOKUP(E14,Ingridents!A:B,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8.475E-5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 939, ProductId = 71, RawMaterialId = 98, QuantityRequired = 0.00008475f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>940</v>
+      </c>
+      <c r="B15" s="1">
+        <f>VLOOKUP(C15,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="7">
+        <f>VLOOKUP(E15,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 940, ProductId = 71, RawMaterialId = 6, QuantityRequired = 0.2119f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>941</v>
+      </c>
+      <c r="B16" s="1">
+        <f>VLOOKUP(C16,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="7">
+        <f>VLOOKUP(E16,Ingridents!A:B,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8.4749999999999999E-3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 941, ProductId = 71, RawMaterialId = 26, QuantityRequired = 0.008475f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>942</v>
+      </c>
+      <c r="B17" s="1">
+        <f>VLOOKUP(C17,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="7">
+        <f>VLOOKUP(E17,Ingridents!A:B,2,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 942, ProductId = 71, RawMaterialId = 51, QuantityRequired = 0.00212f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>943</v>
+      </c>
+      <c r="B18" s="1">
+        <f>VLOOKUP(C18,Products!A:B,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7">
+        <f>VLOOKUP(E18,Ingridents!A:B,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 943, ProductId = 71, RawMaterialId = 52, QuantityRequired = 0.00212f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>944</v>
+      </c>
+      <c r="B19" s="1">
+        <f>VLOOKUP(C19,Products!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="7">
+        <f>VLOOKUP(E19,Ingridents!A:B,2,FALSE)</f>
+        <v>112</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 944, ProductId = 116, RawMaterialId = 112, QuantityRequired = 0.036f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>945</v>
+      </c>
+      <c r="B20" s="1">
+        <f>VLOOKUP(C20,Products!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" s="7">
+        <f>VLOOKUP(E20,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 945, ProductId = 116, RawMaterialId = 1, QuantityRequired = 0.004f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>946</v>
+      </c>
+      <c r="B21" s="1">
+        <f>VLOOKUP(C21,Products!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="7">
+        <f>VLOOKUP(E21,Ingridents!A:B,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 946, ProductId = 116, RawMaterialId = 18, QuantityRequired = 0.02f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>947</v>
+      </c>
+      <c r="B22" s="1">
+        <f>VLOOKUP(C22,Products!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="7">
+        <f>VLOOKUP(E22,Ingridents!A:B,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 947, ProductId = 116, RawMaterialId = 35, QuantityRequired = 0.004f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>948</v>
+      </c>
+      <c r="B23" s="1">
+        <f>VLOOKUP(C23,Products!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="7">
+        <f>VLOOKUP(E23,Ingridents!A:B,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 948, ProductId = 116, RawMaterialId = 7, QuantityRequired = 0.001f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>949</v>
+      </c>
+      <c r="B24" s="1">
+        <f>VLOOKUP(C24,Products!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <f>VLOOKUP(E24,Ingridents!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 949, ProductId = 116, RawMaterialId = 9, QuantityRequired = 0.001f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>950</v>
+      </c>
+      <c r="B25" s="1">
+        <f>VLOOKUP(C25,Products!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" s="7">
+        <f>VLOOKUP(E25,Ingridents!A:B,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 950, ProductId = 116, RawMaterialId = 98, QuantityRequired = 0.0002f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>951</v>
+      </c>
+      <c r="B26" s="1">
+        <f>VLOOKUP(C26,Products!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="7">
+        <f>VLOOKUP(E26,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 951, ProductId = 116, RawMaterialId = 6, QuantityRequired = 0.5f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>952</v>
+      </c>
+      <c r="B27" s="1">
+        <f>VLOOKUP(C27,Products!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="7">
+        <f>VLOOKUP(E27,Ingridents!A:B,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 952, ProductId = 116, RawMaterialId = 26, QuantityRequired = 0.02f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>953</v>
+      </c>
+      <c r="B28" s="1">
+        <f>VLOOKUP(C28,Products!A:B,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="7">
+        <f>VLOOKUP(E28,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.8410000000000001E-2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 953, ProductId = 118, RawMaterialId = 1, QuantityRequired = 0.02841f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>954</v>
+      </c>
+      <c r="B29" s="1">
+        <f>VLOOKUP(C29,Products!A:B,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="7">
+        <f>VLOOKUP(E29,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.8410000000000001E-2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 954, ProductId = 118, RawMaterialId = 2, QuantityRequired = 0.02841f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>955</v>
+      </c>
+      <c r="B30" s="1">
+        <f>VLOOKUP(C30,Products!A:B,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="7">
+        <f>VLOOKUP(E30,Ingridents!A:B,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8.5229999999999993E-3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 955, ProductId = 118, RawMaterialId = 17, QuantityRequired = 0.008523f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>956</v>
+      </c>
+      <c r="B31" s="1">
+        <f>VLOOKUP(C31,Products!A:B,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" s="7">
+        <f>VLOOKUP(E31,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 956, ProductId = 118, RawMaterialId = 6, QuantityRequired = 0.8523f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>957</v>
+      </c>
+      <c r="B32" s="1">
+        <f>VLOOKUP(C32,Products!A:B,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="7">
+        <f>VLOOKUP(E32,Ingridents!A:B,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.4205000000000001E-3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 957, ProductId = 118, RawMaterialId = 34, QuantityRequired = 0.0014205f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>958</v>
+      </c>
+      <c r="B33" s="1">
+        <f>VLOOKUP(C33,Products!A:B,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="7">
+        <f>VLOOKUP(E33,Ingridents!A:B,2,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 958, ProductId = 118, RawMaterialId = 51, QuantityRequired = 0.00625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>959</v>
+      </c>
+      <c r="B34" s="1">
+        <f>VLOOKUP(C34,Products!A:B,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="7">
+        <f>VLOOKUP(E34,Ingridents!A:B,2,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 959, ProductId = 118, RawMaterialId = 114, QuantityRequired = 0.0125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>960</v>
+      </c>
+      <c r="B35" s="1">
+        <f>VLOOKUP(C35,Products!A:B,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="7">
+        <f>VLOOKUP(E35,Ingridents!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 960, ProductId = 118, RawMaterialId = 9, QuantityRequired = 0.0025f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>961</v>
+      </c>
+      <c r="B36" s="1">
+        <f>VLOOKUP(C36,Products!A:B,2,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="7">
+        <f>VLOOKUP(E36,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6.5659999999999998E-3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 961, ProductId = 119, RawMaterialId = 1, QuantityRequired = 0.006566f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>962</v>
+      </c>
+      <c r="B37" s="1">
+        <f>VLOOKUP(C37,Products!A:B,2,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="7">
+        <f>VLOOKUP(E37,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6.5659999999999998E-3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 962, ProductId = 119, RawMaterialId = 2, QuantityRequired = 0.006566f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>963</v>
+      </c>
+      <c r="B38" s="1">
+        <f>VLOOKUP(C38,Products!A:B,2,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="7">
+        <f>VLOOKUP(E38,Ingridents!A:B,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.9697999999999998E-3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 963, ProductId = 119, RawMaterialId = 17, QuantityRequired = 0.0019698f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>964</v>
+      </c>
+      <c r="B39" s="1">
+        <f>VLOOKUP(C39,Products!A:B,2,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="7">
+        <f>VLOOKUP(E39,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.19697999999999999</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 964, ProductId = 119, RawMaterialId = 6, QuantityRequired = 0.19698f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>965</v>
+      </c>
+      <c r="B40" s="1">
+        <f>VLOOKUP(C40,Products!A:B,2,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="7">
+        <f>VLOOKUP(E40,Ingridents!A:B,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3.2830000000000001E-4</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 965, ProductId = 119, RawMaterialId = 34, QuantityRequired = 0.0003283f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>966</v>
+      </c>
+      <c r="B41" s="1">
+        <f>VLOOKUP(C41,Products!A:B,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="7">
+        <f>VLOOKUP(E41,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 966, ProductId = 120, RawMaterialId = 1, QuantityRequired = 0.3334f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>967</v>
+      </c>
+      <c r="B42" s="1">
+        <f>VLOOKUP(C42,Products!A:B,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="7">
+        <f>VLOOKUP(E42,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 967, ProductId = 120, RawMaterialId = 2, QuantityRequired = 0.3334f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>968</v>
+      </c>
+      <c r="B43" s="1">
+        <f>VLOOKUP(C43,Products!A:B,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="7">
+        <f>VLOOKUP(E43,Ingridents!A:B,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 968, ProductId = 120, RawMaterialId = 17, QuantityRequired = 0.1f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>969</v>
+      </c>
+      <c r="B44" s="1">
+        <f>VLOOKUP(C44,Products!A:B,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="7">
+        <f>VLOOKUP(E44,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 969, ProductId = 120, RawMaterialId = 6, QuantityRequired = 10f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>970</v>
+      </c>
+      <c r="B45" s="1">
+        <f>VLOOKUP(C45,Products!A:B,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" s="7">
+        <f>VLOOKUP(E45,Ingridents!A:B,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 970, ProductId = 120, RawMaterialId = 34, QuantityRequired = 0.01667f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>971</v>
+      </c>
+      <c r="B46" s="1">
+        <f>VLOOKUP(C46,Products!A:B,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" s="7">
+        <f>VLOOKUP(E46,Ingridents!A:B,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3.3340000000000002E-2</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 971, ProductId = 120, RawMaterialId = 39, QuantityRequired = 0.03334f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>972</v>
+      </c>
+      <c r="B47" s="1">
+        <f>VLOOKUP(C47,Products!A:B,2,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" s="7">
+        <f>VLOOKUP(E47,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 972, ProductId = 121, RawMaterialId = 1, QuantityRequired = 0.3334f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>973</v>
+      </c>
+      <c r="B48" s="1">
+        <f>VLOOKUP(C48,Products!A:B,2,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" s="7">
+        <f>VLOOKUP(E48,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 973, ProductId = 121, RawMaterialId = 2, QuantityRequired = 0.3334f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>974</v>
+      </c>
+      <c r="B49" s="1">
+        <f>VLOOKUP(C49,Products!A:B,2,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="7">
+        <f>VLOOKUP(E49,Ingridents!A:B,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 974, ProductId = 121, RawMaterialId = 17, QuantityRequired = 0.1f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>975</v>
+      </c>
+      <c r="B50" s="1">
+        <f>VLOOKUP(C50,Products!A:B,2,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D50" s="7">
+        <f>VLOOKUP(E50,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 975, ProductId = 121, RawMaterialId = 6, QuantityRequired = 10f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>976</v>
+      </c>
+      <c r="B51" s="1">
+        <f>VLOOKUP(C51,Products!A:B,2,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D51" s="7">
+        <f>VLOOKUP(E51,Ingridents!A:B,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 976, ProductId = 121, RawMaterialId = 34, QuantityRequired = 0.01667f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>977</v>
+      </c>
+      <c r="B52" s="1">
+        <f>VLOOKUP(C52,Products!A:B,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" s="7">
+        <f>VLOOKUP(E52,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 977, ProductId = 122, RawMaterialId = 1, QuantityRequired = 0.1667f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>978</v>
+      </c>
+      <c r="B53" s="1">
+        <f>VLOOKUP(C53,Products!A:B,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D53" s="7">
+        <f>VLOOKUP(E53,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 978, ProductId = 122, RawMaterialId = 2, QuantityRequired = 0.1667f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>979</v>
+      </c>
+      <c r="B54" s="1">
+        <f>VLOOKUP(C54,Products!A:B,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D54" s="7">
+        <f>VLOOKUP(E54,Ingridents!A:B,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 979, ProductId = 122, RawMaterialId = 17, QuantityRequired = 0.05f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>980</v>
+      </c>
+      <c r="B55" s="1">
+        <f>VLOOKUP(C55,Products!A:B,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D55" s="7">
+        <f>VLOOKUP(E55,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 980, ProductId = 122, RawMaterialId = 6, QuantityRequired = 5f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>981</v>
+      </c>
+      <c r="B56" s="1">
+        <f>VLOOKUP(C56,Products!A:B,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" s="7">
+        <f>VLOOKUP(E56,Ingridents!A:B,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8.3300000000000006E-3</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 981, ProductId = 122, RawMaterialId = 34, QuantityRequired = 0.00833f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>982</v>
+      </c>
+      <c r="B57" s="1">
+        <f>VLOOKUP(C57,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D57" s="7">
+        <f>VLOOKUP(E57,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.130434783</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 982, ProductId = 123, RawMaterialId = 1, QuantityRequired = 0.130434783f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>983</v>
+      </c>
+      <c r="B58" s="1">
+        <f>VLOOKUP(C58,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="7">
+        <f>VLOOKUP(E58,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.6086957000000001E-2</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 983, ProductId = 123, RawMaterialId = 2, QuantityRequired = 0.026086957f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>984</v>
+      </c>
+      <c r="B59" s="1">
+        <f>VLOOKUP(C59,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="7">
+        <f>VLOOKUP(E59,Ingridents!A:B,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3.261E-3</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 984, ProductId = 123, RawMaterialId = 15, QuantityRequired = 0.003261f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>985</v>
+      </c>
+      <c r="B60" s="1">
+        <f>VLOOKUP(C60,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="7">
+        <f>VLOOKUP(E60,Ingridents!A:B,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.30435E-2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 985, ProductId = 123, RawMaterialId = 24, QuantityRequired = 0.0130435f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>986</v>
+      </c>
+      <c r="B61" s="1">
+        <f>VLOOKUP(C61,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" s="7">
+        <f>VLOOKUP(E61,Ingridents!A:B,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1">
+        <v>6.522E-3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 986, ProductId = 123, RawMaterialId = 7, QuantityRequired = 0.006522f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>987</v>
+      </c>
+      <c r="B62" s="1">
+        <f>VLOOKUP(C62,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D62" s="7">
+        <f>VLOOKUP(E62,Ingridents!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="1">
+        <v>6.522E-3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 987, ProductId = 123, RawMaterialId = 9, QuantityRequired = 0.006522f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>988</v>
+      </c>
+      <c r="B63" s="1">
+        <f>VLOOKUP(C63,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" s="7">
+        <f>VLOOKUP(E63,Ingridents!A:B,2,FALSE)</f>
+        <v>91</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F63" s="1">
+        <v>6.5220000000000002E-4</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 988, ProductId = 123, RawMaterialId = 91, QuantityRequired = 0.0006522f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>989</v>
+      </c>
+      <c r="B64" s="1">
+        <f>VLOOKUP(C64,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="7">
+        <f>VLOOKUP(E64,Ingridents!A:B,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1">
+        <v>6.5220000000000002E-4</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 989, ProductId = 123, RawMaterialId = 5, QuantityRequired = 0.0006522f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>990</v>
+      </c>
+      <c r="B65" s="1">
+        <f>VLOOKUP(C65,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="7">
+        <f>VLOOKUP(E65,Ingridents!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.3043499999999999E-3</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 990, ProductId = 123, RawMaterialId = 4, QuantityRequired = 0.00130435f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>991</v>
+      </c>
+      <c r="B66" s="1">
+        <f>VLOOKUP(C66,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" s="7">
+        <f>VLOOKUP(E66,Ingridents!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.956522E-3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="I66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 991, ProductId = 123, RawMaterialId = 3, QuantityRequired = 0.001956522f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>992</v>
+      </c>
+      <c r="B67" s="1">
+        <f>VLOOKUP(C67,Products!A:B,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="7">
+        <f>VLOOKUP(E67,Ingridents!A:B,2,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F67" s="1">
+        <v>8.6957000000000007E-2</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" ref="H67:H130" si="2">TEXT("true","")</f>
+        <v>true</v>
+      </c>
+      <c r="I67" s="1" t="str">
+        <f t="shared" ref="I67:I130" si="3">"new ProductRawMaterial { Id = "&amp;A67&amp;", ProductId = "&amp;B67&amp;", RawMaterialId = "&amp;D67&amp;", QuantityRequired = "&amp;F67&amp;"f, MapType = """&amp;G67&amp;""", ShowInReport = "&amp;H67&amp;" },"</f>
+        <v>new ProductRawMaterial { Id = 992, ProductId = 123, RawMaterialId = 113, QuantityRequired = 0.086957f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>993</v>
+      </c>
+      <c r="B68" s="1">
+        <f>VLOOKUP(C68,Products!A:B,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="7">
+        <f>VLOOKUP(E68,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 993, ProductId = 124, RawMaterialId = 1, QuantityRequired = 0.1875f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>994</v>
+      </c>
+      <c r="B69" s="1">
+        <f>VLOOKUP(C69,Products!A:B,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D69" s="7">
+        <f>VLOOKUP(E69,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2.8125000000000001E-2</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 994, ProductId = 124, RawMaterialId = 2, QuantityRequired = 0.028125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>995</v>
+      </c>
+      <c r="B70" s="1">
+        <f>VLOOKUP(C70,Products!A:B,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D70" s="7">
+        <f>VLOOKUP(E70,Ingridents!A:B,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="1">
+        <v>4.6874999999999998E-3</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 995, ProductId = 124, RawMaterialId = 15, QuantityRequired = 0.0046875f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>996</v>
+      </c>
+      <c r="B71" s="1">
+        <f>VLOOKUP(C71,Products!A:B,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D71" s="7">
+        <f>VLOOKUP(E71,Ingridents!A:B,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 996, ProductId = 124, RawMaterialId = 24, QuantityRequired = 0.01875f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>997</v>
+      </c>
+      <c r="B72" s="1">
+        <f>VLOOKUP(C72,Products!A:B,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D72" s="7">
+        <f>VLOOKUP(E72,Ingridents!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 997, ProductId = 124, RawMaterialId = 4, QuantityRequired = 0.01875f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>998</v>
+      </c>
+      <c r="B73" s="1">
+        <f>VLOOKUP(C73,Products!A:B,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D73" s="7">
+        <f>VLOOKUP(E73,Ingridents!A:B,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 998, ProductId = 124, RawMaterialId = 5, QuantityRequired = 0.0009375f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>999</v>
+      </c>
+      <c r="B74" s="1">
+        <f>VLOOKUP(C74,Products!A:B,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D74" s="7">
+        <f>VLOOKUP(E74,Ingridents!A:B,2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 999, ProductId = 124, RawMaterialId = 90, QuantityRequired = 0.015625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B75" s="1">
+        <f>VLOOKUP(C75,Products!A:B,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D75" s="7">
+        <f>VLOOKUP(E75,Ingridents!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4.6874999999999998E-4</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I75" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1000, ProductId = 124, RawMaterialId = 3, QuantityRequired = 0.00046875f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B76" s="1">
+        <f>VLOOKUP(C76,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D76" s="7">
+        <f>VLOOKUP(E76,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I76" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1001, ProductId = 59, RawMaterialId = 1, QuantityRequired = 0.15f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B77" s="1">
+        <f>VLOOKUP(C77,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" s="7">
+        <f>VLOOKUP(E77,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I77" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1002, ProductId = 59, RawMaterialId = 2, QuantityRequired = 0.03f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B78" s="1">
+        <f>VLOOKUP(C78,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" s="7">
+        <f>VLOOKUP(E78,Ingridents!A:B,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="8">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1003, ProductId = 59, RawMaterialId = 15, QuantityRequired = 0.00375f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B79" s="1">
+        <f>VLOOKUP(C79,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="7">
+        <f>VLOOKUP(E79,Ingridents!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1004, ProductId = 59, RawMaterialId = 9, QuantityRequired = 0.0025f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B80" s="1">
+        <f>VLOOKUP(C80,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" s="7">
+        <f>VLOOKUP(E80,Ingridents!A:B,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1005, ProductId = 59, RawMaterialId = 7, QuantityRequired = 0.0025f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B81" s="1">
+        <f>VLOOKUP(C81,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" s="7">
+        <f>VLOOKUP(E81,Ingridents!A:B,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1006, ProductId = 59, RawMaterialId = 53, QuantityRequired = 0.0025f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B82" s="1">
+        <f>VLOOKUP(C82,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D82" s="7">
+        <f>VLOOKUP(E82,Ingridents!A:B,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1007, ProductId = 59, RawMaterialId = 98, QuantityRequired = 0.00075f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B83" s="1">
+        <f>VLOOKUP(C83,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" s="7">
+        <f>VLOOKUP(E83,Ingridents!A:B,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1008, ProductId = 59, RawMaterialId = 29, QuantityRequired = 0.00075f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B84" s="1">
+        <f>VLOOKUP(C84,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="7">
+        <f>VLOOKUP(E84,Ingridents!A:B,2,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I84" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1009, ProductId = 59, RawMaterialId = 115, QuantityRequired = 0.015f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B85" s="1">
+        <f>VLOOKUP(C85,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D85" s="7">
+        <f>VLOOKUP(E85,Ingridents!A:B,2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I85" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1010, ProductId = 59, RawMaterialId = 90, QuantityRequired = 0.0125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B86" s="1">
+        <f>VLOOKUP(C86,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" s="7">
+        <f>VLOOKUP(E86,Ingridents!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I86" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1011, ProductId = 59, RawMaterialId = 3, QuantityRequired = 0.00225f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B87" s="1">
+        <f>VLOOKUP(C87,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" s="7">
+        <f>VLOOKUP(E87,Ingridents!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I87" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1012, ProductId = 59, RawMaterialId = 4, QuantityRequired = 0.0015f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B88" s="1">
+        <f>VLOOKUP(C88,Products!A:B,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D88" s="7">
+        <f>VLOOKUP(E88,Ingridents!A:B,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I88" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1013, ProductId = 59, RawMaterialId = 5, QuantityRequired = 0.00075f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B89" s="1">
+        <f>VLOOKUP(C89,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D89" s="7">
+        <f>VLOOKUP(E89,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I89" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1014, ProductId = 125, RawMaterialId = 1, QuantityRequired = 0.15f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B90" s="1">
+        <f>VLOOKUP(C90,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D90" s="7">
+        <f>VLOOKUP(E90,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I90" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1015, ProductId = 125, RawMaterialId = 2, QuantityRequired = 0.03f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B91" s="1">
+        <f>VLOOKUP(C91,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D91" s="7">
+        <f>VLOOKUP(E91,Ingridents!A:B,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="8">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I91" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1016, ProductId = 125, RawMaterialId = 15, QuantityRequired = 0.00375f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B92" s="1">
+        <f>VLOOKUP(C92,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D92" s="7">
+        <f>VLOOKUP(E92,Ingridents!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I92" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1017, ProductId = 125, RawMaterialId = 9, QuantityRequired = 0.0025f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B93" s="1">
+        <f>VLOOKUP(C93,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="7">
+        <f>VLOOKUP(E93,Ingridents!A:B,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I93" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1018, ProductId = 125, RawMaterialId = 7, QuantityRequired = 0.0025f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B94" s="1">
+        <f>VLOOKUP(C94,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D94" s="7">
+        <f>VLOOKUP(E94,Ingridents!A:B,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I94" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1019, ProductId = 125, RawMaterialId = 53, QuantityRequired = 0.0025f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B95" s="1">
+        <f>VLOOKUP(C95,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" s="7">
+        <f>VLOOKUP(E95,Ingridents!A:B,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I95" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1020, ProductId = 125, RawMaterialId = 98, QuantityRequired = 0.00075f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B96" s="1">
+        <f>VLOOKUP(C96,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D96" s="7">
+        <f>VLOOKUP(E96,Ingridents!A:B,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I96" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1021, ProductId = 125, RawMaterialId = 24, QuantityRequired = 0.015f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B97" s="1">
+        <f>VLOOKUP(C97,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D97" s="7">
+        <f>VLOOKUP(E97,Ingridents!A:B,2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I97" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1022, ProductId = 125, RawMaterialId = 90, QuantityRequired = 0.0125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B98" s="1">
+        <f>VLOOKUP(C98,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D98" s="7">
+        <f>VLOOKUP(E98,Ingridents!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I98" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1023, ProductId = 125, RawMaterialId = 3, QuantityRequired = 0.00225f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B99" s="1">
+        <f>VLOOKUP(C99,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D99" s="7">
+        <f>VLOOKUP(E99,Ingridents!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I99" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1024, ProductId = 125, RawMaterialId = 4, QuantityRequired = 0.0015f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B100" s="1">
+        <f>VLOOKUP(C100,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" s="7">
+        <f>VLOOKUP(E100,Ingridents!A:B,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I100" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1025, ProductId = 125, RawMaterialId = 5, QuantityRequired = 0.00075f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B101" s="1">
+        <f>VLOOKUP(C101,Products!A:B,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D101" s="7">
+        <f>VLOOKUP(E101,Ingridents!A:B,2,FALSE)</f>
+        <v>91</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F101" s="1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I101" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1026, ProductId = 125, RawMaterialId = 91, QuantityRequired = 0.00075f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B102" s="1">
+        <f>VLOOKUP(C102,Products!A:B,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="7">
+        <f>VLOOKUP(E102,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I102" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1027, ProductId = 60, RawMaterialId = 1, QuantityRequired = 0.05f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B103" s="1">
+        <f>VLOOKUP(C103,Products!A:B,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" s="7">
+        <f>VLOOKUP(E103,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I103" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1028, ProductId = 60, RawMaterialId = 2, QuantityRequired = 0.05f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B104" s="1">
+        <f>VLOOKUP(C104,Products!A:B,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" s="7">
+        <f>VLOOKUP(E104,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I104" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1029, ProductId = 60, RawMaterialId = 6, QuantityRequired = 1f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B105" s="1">
+        <f>VLOOKUP(C105,Products!A:B,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" s="7">
+        <f>VLOOKUP(E105,Ingridents!A:B,2,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F105" s="1">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I105" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1030, ProductId = 60, RawMaterialId = 113, QuantityRequired = 0.0667f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B106" s="1">
+        <f>VLOOKUP(C106,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="7">
+        <f>VLOOKUP(E106,Ingridents!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I106" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1031, ProductId = 67, RawMaterialId = 1, QuantityRequired = 0.078125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B107" s="1">
+        <f>VLOOKUP(C107,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" s="7">
+        <f>VLOOKUP(E107,Ingridents!A:B,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1.953125E-2</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I107" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1032, ProductId = 67, RawMaterialId = 18, QuantityRequired = 0.01953125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B108" s="1">
+        <f>VLOOKUP(C108,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" s="7">
+        <f>VLOOKUP(E108,Ingridents!A:B,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F108" s="1">
+        <v>4.6874999999999998E-3</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I108" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1033, ProductId = 67, RawMaterialId = 116, QuantityRequired = 0.0046875f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B109" s="1">
+        <f>VLOOKUP(C109,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" s="7">
+        <f>VLOOKUP(E109,Ingridents!A:B,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F109" s="1">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I109" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1034, ProductId = 67, RawMaterialId = 117, QuantityRequired = 0.003125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B110" s="1">
+        <f>VLOOKUP(C110,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110" s="7">
+        <f>VLOOKUP(E110,Ingridents!A:B,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F110" s="1">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I110" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1035, ProductId = 67, RawMaterialId = 24, QuantityRequired = 0.0390625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>1036</v>
+      </c>
+      <c r="B111" s="1">
+        <f>VLOOKUP(C111,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="7">
+        <f>VLOOKUP(E111,Ingridents!A:B,2,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" s="1">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I111" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1036, ProductId = 67, RawMaterialId = 83, QuantityRequired = 0.00625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B112" s="1">
+        <f>VLOOKUP(C112,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="7">
+        <f>VLOOKUP(E112,Ingridents!A:B,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I112" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1037, ProductId = 67, RawMaterialId = 118, QuantityRequired = 0.0015625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B113" s="1">
+        <f>VLOOKUP(C113,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D113" s="7">
+        <f>VLOOKUP(E113,Ingridents!A:B,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I113" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1038, ProductId = 67, RawMaterialId = 80, QuantityRequired = 0.0015625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B114" s="1">
+        <f>VLOOKUP(C114,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" s="7">
+        <f>VLOOKUP(E114,Ingridents!A:B,2,FALSE)</f>
+        <v>82</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F114" s="1">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H114" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I114" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1039, ProductId = 67, RawMaterialId = 82, QuantityRequired = 0.00390625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B115" s="1">
+        <f>VLOOKUP(C115,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" s="7">
+        <f>VLOOKUP(E115,Ingridents!A:B,2,FALSE)</f>
+        <v>92</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F115" s="1">
+        <v>7.8125000000000004E-4</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I115" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1040, ProductId = 67, RawMaterialId = 92, QuantityRequired = 0.00078125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B116" s="1">
+        <f>VLOOKUP(C116,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D116" s="7">
+        <f>VLOOKUP(E116,Ingridents!A:B,2,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F116" s="1">
+        <v>7.8125000000000004E-4</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I116" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1041, ProductId = 67, RawMaterialId = 119, QuantityRequired = 0.00078125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B117" s="1">
+        <f>VLOOKUP(C117,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D117" s="7">
+        <f>VLOOKUP(E117,Ingridents!A:B,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="1">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I117" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1042, ProductId = 67, RawMaterialId = 5, QuantityRequired = 0.000625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B118" s="1">
+        <f>VLOOKUP(C118,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D118" s="7">
+        <f>VLOOKUP(E118,Ingridents!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H118" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I118" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1043, ProductId = 67, RawMaterialId = 4, QuantityRequired = 0.0015625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B119" s="1">
+        <f>VLOOKUP(C119,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D119" s="7">
+        <f>VLOOKUP(E119,Ingridents!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2.0312500000000001E-3</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I119" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1044, ProductId = 67, RawMaterialId = 3, QuantityRequired = 0.00203125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B120" s="1">
+        <f>VLOOKUP(C120,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D120" s="7">
+        <f>VLOOKUP(E120,Ingridents!A:B,2,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F120" s="1">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I120" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1045, ProductId = 67, RawMaterialId = 89, QuantityRequired = 0.0078125f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B121" s="1">
+        <f>VLOOKUP(C121,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" s="7">
+        <f>VLOOKUP(E121,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I121" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1046, ProductId = 67, RawMaterialId = 6, QuantityRequired = 0.0625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B122" s="1">
+        <f>VLOOKUP(C122,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="7">
+        <f>VLOOKUP(E122,Ingridents!A:B,2,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H122" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I122" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1047, ProductId = 67, RawMaterialId = 77, QuantityRequired = 0.0015625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B123" s="1">
+        <f>VLOOKUP(C123,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D123" s="7">
+        <f>VLOOKUP(E123,Ingridents!A:B,2,FALSE)</f>
+        <v>84</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H123" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I123" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1048, ProductId = 67, RawMaterialId = 84, QuantityRequired = 0.0015625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B124" s="1">
+        <f>VLOOKUP(C124,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="7">
+        <f>VLOOKUP(E124,Ingridents!A:B,2,FALSE)</f>
+        <v>111</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H124" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1049, ProductId = 67, RawMaterialId = 111, QuantityRequired = 0.0015625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B125" s="1">
+        <f>VLOOKUP(C125,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D125" s="7">
+        <f>VLOOKUP(E125,Ingridents!A:B,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H125" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I125" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1050, ProductId = 67, RawMaterialId = 30, QuantityRequired = 0.00234375f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B126" s="1">
+        <f>VLOOKUP(C126,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D126" s="7">
+        <f>VLOOKUP(E126,Ingridents!A:B,2,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I126" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1051, ProductId = 67, RawMaterialId = 85, QuantityRequired = 0.015625f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B127" s="1">
+        <f>VLOOKUP(C127,Products!A:B,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D127" s="7">
+        <f>VLOOKUP(E127,Ingridents!A:B,2,FALSE)</f>
+        <v>88</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F127" s="1">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H127" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I127" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1052, ProductId = 67, RawMaterialId = 88, QuantityRequired = 0.0009375f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B128" s="1">
+        <f>VLOOKUP(C128,Products!A:B,2,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D128" s="7">
+        <f>VLOOKUP(E128,Ingridents!A:B,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F128" s="12">
+        <v>0.41933999999999999</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I128" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1053, ProductId = 66, RawMaterialId = 11, QuantityRequired = 0.41934f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B129" s="1">
+        <f>VLOOKUP(C129,Products!A:B,2,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D129" s="7">
+        <f>VLOOKUP(E129,Ingridents!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.32258100000000001</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H129" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I129" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1054, ProductId = 66, RawMaterialId = 2, QuantityRequired = 0.322581f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B130" s="1">
+        <f>VLOOKUP(C130,Products!A:B,2,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D130" s="7">
+        <f>VLOOKUP(E130,Ingridents!A:B,2,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.12903229999999999</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="I130" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>new ProductRawMaterial { Id = 1055, ProductId = 66, RawMaterialId = 51, QuantityRequired = 0.1290323f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B131" s="1">
+        <f>VLOOKUP(C131,Products!A:B,2,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" s="7">
+        <f>VLOOKUP(E131,Ingridents!A:B,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" s="1">
+        <v>6.4520000000000003E-3</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H131" s="1" t="str">
+        <f t="shared" ref="H131:H132" si="4">TEXT("true","")</f>
+        <v>true</v>
+      </c>
+      <c r="I131" s="1" t="str">
+        <f t="shared" ref="I131:I132" si="5">"new ProductRawMaterial { Id = "&amp;A131&amp;", ProductId = "&amp;B131&amp;", RawMaterialId = "&amp;D131&amp;", QuantityRequired = "&amp;F131&amp;"f, MapType = """&amp;G131&amp;""", ShowInReport = "&amp;H131&amp;" },"</f>
+        <v>new ProductRawMaterial { Id = 1056, ProductId = 66, RawMaterialId = 98, QuantityRequired = 0.006452f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>1057</v>
+      </c>
+      <c r="B132" s="1">
+        <f>VLOOKUP(C132,Products!A:B,2,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D132" s="7">
+        <f>VLOOKUP(E132,Ingridents!A:B,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="1">
+        <v>5.1612999999999998</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>true</v>
+      </c>
+      <c r="I132" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>new ProductRawMaterial { Id = 1057, ProductId = 66, RawMaterialId = 6, QuantityRequired = 5.1613f, MapType = "Mix", ShowInReport = true },</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A21684A-37A4-493F-ADD5-F1003219C3A6}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117:J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31076,13 +35589,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B2" s="10">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C2" s="10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>178</v>
@@ -31105,13 +35618,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B3" s="10">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>178</v>
@@ -31134,10 +35647,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -31163,13 +35676,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="B5" s="10">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C5" s="10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>178</v>
@@ -31192,13 +35705,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="B6" s="10">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C6" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>178</v>
@@ -31221,13 +35734,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B7" s="10">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>178</v>
@@ -31250,13 +35763,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="B8" s="10">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>178</v>
@@ -31279,13 +35792,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="B9" s="10">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>178</v>
@@ -31308,13 +35821,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="B10" s="10">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>178</v>
@@ -31337,13 +35850,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B11" s="10">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>178</v>
@@ -31366,13 +35879,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="B12" s="10">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C12" s="10">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>178</v>
@@ -31395,13 +35908,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="B13" s="10">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>178</v>
@@ -31424,13 +35937,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="B14" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>178</v>
@@ -31453,13 +35966,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="B15" s="10">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>178</v>
@@ -31482,13 +35995,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="B16" s="10">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C16" s="10">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>178</v>
@@ -31511,13 +36024,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="B17" s="10">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C17" s="10">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>178</v>
@@ -31540,13 +36053,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B18" s="10">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>178</v>
@@ -31564,18 +36077,18 @@
         <v>45840.241561608796</v>
       </c>
       <c r="I18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="B19" s="10">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C19" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>178</v>
@@ -31598,13 +36111,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B20" s="10">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C20" s="10">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>178</v>
@@ -31627,13 +36140,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B21" s="10">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C21" s="10">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>178</v>
@@ -31656,13 +36169,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="B22" s="10">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C22" s="10">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>178</v>
@@ -31685,13 +36198,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B23" s="10">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C23" s="10">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>178</v>
@@ -31714,13 +36227,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="B24" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>178</v>
@@ -31743,13 +36256,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B25" s="10">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C25" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>178</v>
@@ -31772,13 +36285,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="B26" s="10">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C26" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>178</v>
@@ -31801,13 +36314,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="B27" s="10">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C27" s="10">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>178</v>
@@ -31830,13 +36343,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B28" s="10">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C28" s="10">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>178</v>
@@ -31854,18 +36367,18 @@
         <v>45840.241561608796</v>
       </c>
       <c r="I28" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="B29" s="10">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C29" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>178</v>
@@ -31888,13 +36401,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B30" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C30" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>178</v>
@@ -31917,13 +36430,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="B31" s="10">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C31" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>178</v>
@@ -31946,13 +36459,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="B32" s="10">
+        <v>31</v>
+      </c>
+      <c r="C32" s="10">
         <v>4</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>178</v>
@@ -31975,13 +36488,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B33" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>178</v>
@@ -32004,13 +36517,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="B34" s="10">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C34" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>178</v>
@@ -32033,13 +36546,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B35" s="10">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C35" s="10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>178</v>
@@ -32062,13 +36575,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="B36" s="10">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C36" s="10">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>178</v>
@@ -32091,13 +36604,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B37" s="10">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C37" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>178</v>
@@ -32120,13 +36633,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B38" s="10">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C38" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>178</v>
@@ -32149,13 +36662,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B39" s="10">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C39" s="10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>178</v>
@@ -32173,18 +36686,18 @@
         <v>45840.241561608796</v>
       </c>
       <c r="I39" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="B40" s="10">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C40" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>178</v>
@@ -32207,13 +36720,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="B41" s="10">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C41" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>178</v>
@@ -32236,13 +36749,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B42" s="10">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C42" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>178</v>
@@ -32265,10 +36778,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B43" s="10">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C43" s="10">
         <v>13</v>
@@ -32289,18 +36802,18 @@
         <v>45840.241561608796</v>
       </c>
       <c r="I43" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B44" s="10">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C44" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>178</v>
@@ -32323,13 +36836,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="B45" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C45" s="10">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>178</v>
@@ -32352,13 +36865,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="B46" s="10">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C46" s="10">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>178</v>
@@ -32381,10 +36894,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="B47" s="10">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C47" s="10">
         <v>14</v>
@@ -32410,10 +36923,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B48" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="10">
         <v>14</v>
@@ -32439,13 +36952,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="B49" s="10">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C49" s="10">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>178</v>
@@ -32468,13 +36981,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="B50" s="10">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C50" s="10">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>178</v>
@@ -32497,13 +37010,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="B51" s="10">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C51" s="10">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>178</v>
@@ -32526,13 +37039,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="B52" s="10">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C52" s="10">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>178</v>
@@ -32555,13 +37068,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="B53" s="10">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C53" s="10">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>178</v>
@@ -32584,13 +37097,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B54" s="10">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C54" s="10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>178</v>
@@ -32613,10 +37126,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B55" s="10">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="10">
         <v>14</v>
@@ -32642,13 +37155,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="B56" s="10">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C56" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>178</v>
@@ -32671,10 +37184,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B57" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C57" s="10">
         <v>14</v>
@@ -32700,13 +37213,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B58" s="10">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C58" s="10">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>178</v>
@@ -32729,13 +37242,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B59" s="10">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C59" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>178</v>
@@ -32753,18 +37266,18 @@
         <v>45840.241561608796</v>
       </c>
       <c r="I59" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="B60" s="10">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C60" s="10">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>178</v>
@@ -32782,18 +37295,18 @@
         <v>45840.241561608796</v>
       </c>
       <c r="I60" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B61" s="10">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>178</v>
@@ -32816,13 +37329,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="B62" s="10">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C62" s="10">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>178</v>
@@ -32845,13 +37358,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="B63" s="10">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C63" s="10">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>178</v>
@@ -32874,13 +37387,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="B64" s="10">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C64" s="10">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>178</v>
@@ -32903,13 +37416,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="B65" s="10">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C65" s="10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>178</v>
@@ -32932,13 +37445,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="B66" s="10">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C66" s="10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>178</v>
@@ -32961,13 +37474,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B67" s="10">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C67" s="10">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>178</v>
@@ -32990,13 +37503,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="B68" s="10">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C68" s="10">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>178</v>
@@ -33019,13 +37532,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="B69" s="10">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C69" s="10">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>178</v>
@@ -33048,13 +37561,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="B70" s="10">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C70" s="10">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>178</v>
@@ -33077,13 +37590,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="B71" s="10">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C71" s="10">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>178</v>
@@ -33106,13 +37619,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="B72" s="10">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C72" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>178</v>
@@ -33135,13 +37648,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B73" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C73" s="10">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>178</v>
@@ -33164,13 +37677,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B74" s="10">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C74" s="10">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>178</v>
@@ -33193,13 +37706,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="B75" s="10">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C75" s="10">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>178</v>
@@ -33222,13 +37735,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="B76" s="10">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C76" s="10">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>178</v>
@@ -33251,13 +37764,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B77" s="10">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C77" s="10">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>178</v>
@@ -33280,10 +37793,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="B78" s="10">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C78" s="10">
         <v>5</v>
@@ -33309,10 +37822,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B79" s="10">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C79" s="10">
         <v>5</v>
@@ -33338,13 +37851,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B80" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C80" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>178</v>
@@ -33367,13 +37880,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B81" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C81" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>178</v>
@@ -33396,13 +37909,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B82" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C82" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>178</v>
@@ -33425,13 +37938,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B83" s="10">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C83" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>178</v>
@@ -33454,13 +37967,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="B84" s="10">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C84" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>178</v>
@@ -33483,13 +37996,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="B85" s="10">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C85" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>178</v>
@@ -33512,13 +38025,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="B86" s="10">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C86" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>178</v>
@@ -33541,13 +38054,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B87" s="10">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C87" s="10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>178</v>
@@ -33570,13 +38083,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="B88" s="10">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C88" s="10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>178</v>
@@ -33599,13 +38112,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="B89" s="10">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C89" s="10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>178</v>
@@ -33628,13 +38141,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="B90" s="10">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C90" s="10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>178</v>
@@ -33657,13 +38170,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="B91" s="10">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C91" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>178</v>
@@ -33715,10 +38228,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="B93" s="10">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C93" s="10">
         <v>25</v>
@@ -33744,10 +38257,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B94" s="10">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C94" s="10">
         <v>25</v>
@@ -33773,13 +38286,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="B95" s="10">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C95" s="10">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>178</v>
@@ -33802,13 +38315,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="B96" s="10">
+        <v>95</v>
+      </c>
+      <c r="C96" s="10">
         <v>2</v>
-      </c>
-      <c r="C96" s="10">
-        <v>1</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>178</v>
@@ -33831,13 +38344,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="B97" s="10">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C97" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>178</v>
@@ -33860,10 +38373,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B98" s="10">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98" s="10">
         <v>4</v>
@@ -33918,10 +38431,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B100" s="10">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C100" s="10">
         <v>4</v>
@@ -33947,13 +38460,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="B101" s="10">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C101" s="10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>178</v>
@@ -33971,18 +38484,18 @@
         <v>45840.241561608796</v>
       </c>
       <c r="I101" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="B102" s="10">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C102" s="10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>178</v>
@@ -34005,13 +38518,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="B103" s="10">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C103" s="10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>178</v>
@@ -34034,13 +38547,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="B104" s="10">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C104" s="10">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>178</v>
@@ -34063,13 +38576,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="B105" s="10">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C105" s="10">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>178</v>
@@ -34092,13 +38605,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="B106" s="10">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C106" s="10">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>178</v>
@@ -34121,13 +38634,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="B107" s="10">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="C107" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>178</v>
@@ -34150,10 +38663,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B108" s="10">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C108" s="10">
         <v>14</v>
@@ -34179,13 +38692,13 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="B109" s="10">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C109" s="10">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>178</v>
@@ -34208,10 +38721,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="B110" s="10">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C110" s="10">
         <v>14</v>
@@ -34237,13 +38750,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B111" s="10">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C111" s="10">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>178</v>
@@ -34266,10 +38779,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B112" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" s="10">
         <v>25</v>
@@ -34293,15 +38806,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="B113" s="10">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C113" s="10">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>178</v>
@@ -34322,15 +38835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="B114" s="10">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C114" s="10">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>178</v>
@@ -34348,18 +38861,18 @@
         <v>45840.241561608796</v>
       </c>
       <c r="I114" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="B115" s="10">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C115" s="10">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>178</v>
@@ -34380,15 +38893,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="B116" s="10">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C116" s="10">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>178</v>
@@ -34409,20 +38922,351 @@
         <v>0</v>
       </c>
     </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B117" s="15">
+        <v>116</v>
+      </c>
+      <c r="C117" s="15">
+        <v>4</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="15">
+        <v>450</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H117" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I117" s="15">
+        <v>0</v>
+      </c>
+      <c r="J117" t="str">
+        <f>"new Product { Id = "&amp;B117&amp;", CategoryId = "&amp;C117&amp;", SubCategoryId = null, Name = """&amp;A117&amp;""", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },"</f>
+        <v>new Product { Id = 116, CategoryId = 4, SubCategoryId = null, Name = "Irish Cake", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B118" s="15">
+        <v>117</v>
+      </c>
+      <c r="C118" s="15">
+        <v>13</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" s="15">
+        <v>450</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H118" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I118" s="15">
+        <v>0</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" ref="J118:J126" si="0">"new Product { Id = "&amp;B118&amp;", CategoryId = "&amp;C118&amp;", SubCategoryId = null, Name = """&amp;A118&amp;""", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },"</f>
+        <v>new Product { Id = 117, CategoryId = 13, SubCategoryId = null, Name = "Ghee Cake - 2kg", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119" s="15">
+        <v>118</v>
+      </c>
+      <c r="C119" s="15">
+        <v>14</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="15">
+        <v>450</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H119" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I119" s="15">
+        <v>0</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { Id = 118, CategoryId = 14, SubCategoryId = null, Name = "Viva Roll", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B120" s="15">
+        <v>119</v>
+      </c>
+      <c r="C120" s="15">
+        <v>25</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E120" s="15">
+        <v>450</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H120" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I120" s="15">
+        <v>0</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { Id = 119, CategoryId = 25, SubCategoryId = null, Name = "Flower Cup", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B121" s="15">
+        <v>120</v>
+      </c>
+      <c r="C121" s="14">
+        <v>4</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" s="15">
+        <v>450</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H121" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I121" s="15">
+        <v>0</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { Id = 120, CategoryId = 4, SubCategoryId = null, Name = "Marble Tray - 1kg", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B122" s="15">
+        <v>121</v>
+      </c>
+      <c r="C122" s="15">
+        <v>4</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E122" s="15">
+        <v>450</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H122" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I122" s="15">
+        <v>0</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { Id = 121, CategoryId = 4, SubCategoryId = null, Name = "White Tray - 1kg", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B123" s="15">
+        <v>122</v>
+      </c>
+      <c r="C123" s="15">
+        <v>9</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="15">
+        <v>450</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H123" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I123" s="15">
+        <v>0</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { Id = 122, CategoryId = 9, SubCategoryId = null, Name = "Gel - 500gm", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B124" s="15">
+        <v>123</v>
+      </c>
+      <c r="C124" s="15">
+        <v>16</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E124" s="15">
+        <v>450</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H124" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I124" s="15">
+        <v>0</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { Id = 123, CategoryId = 16, SubCategoryId = null, Name = "Baby Rusk", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B125" s="15">
+        <v>124</v>
+      </c>
+      <c r="C125" s="15">
+        <v>16</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E125" s="15">
+        <v>450</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H125" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I125" s="15">
+        <v>0</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { Id = 124, CategoryId = 16, SubCategoryId = null, Name = "Sugar Free Rusk", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B126" s="15">
+        <v>125</v>
+      </c>
+      <c r="C126" s="15">
+        <v>16</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" s="15">
+        <v>450</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H126" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="I126" s="15">
+        <v>0</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { Id = 125, CategoryId = 16, SubCategoryId = null, Name = "Rusk Yellow", MRP = 450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I126" xr:uid="{6A21684A-37A4-493F-ADD5-F1003219C3A6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I116">
-    <sortCondition ref="A2:A116"/>
+    <sortCondition ref="B2:B116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AAD5E-244A-4B33-91E2-D91889D4DAA2}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127:I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34699,7 +39543,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>159</v>
+        <v>312</v>
       </c>
       <c r="B11" s="10">
         <v>24</v>
@@ -34724,17 +39568,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>272</v>
+      <c r="A12" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B12" s="10">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" s="10">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>259</v>
@@ -34751,16 +39595,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B13" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C13" s="10">
-        <v>0.75</v>
+        <v>7</v>
       </c>
       <c r="D13" s="10">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>259</v>
@@ -34777,16 +39621,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="B14" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10">
-        <v>1.89</v>
+        <v>0.75</v>
       </c>
       <c r="D14" s="10">
-        <v>465</v>
+        <v>190</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>259</v>
@@ -34803,16 +39647,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B15" s="10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C15" s="10">
-        <v>0.38500000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="D15" s="10">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>259</v>
@@ -34829,16 +39673,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="B16" s="10">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10">
-        <v>100</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D16" s="10">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>259</v>
@@ -34855,16 +39699,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="B17" s="10">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C17" s="10">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="D17" s="10">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>259</v>
@@ -34881,10 +39725,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="10">
         <v>0.01</v>
@@ -34907,10 +39751,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="B19" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10">
         <v>0.01</v>
@@ -34933,16 +39777,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="B20" s="10">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C20" s="10">
-        <v>1.46</v>
+        <v>0.01</v>
       </c>
       <c r="D20" s="10">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>259</v>
@@ -34959,16 +39803,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" s="10">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C21" s="10">
-        <v>20</v>
+        <v>1.46</v>
       </c>
       <c r="D21" s="10">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>259</v>
@@ -34985,16 +39829,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B22" s="10">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10">
-        <v>-0.3105</v>
+        <v>20</v>
       </c>
       <c r="D22" s="10">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>259</v>
@@ -35011,10 +39855,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="B23" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="10">
         <v>-0.3105</v>
@@ -35037,16 +39881,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C24" s="10">
-        <v>100</v>
+        <v>-0.3105</v>
       </c>
       <c r="D24" s="10">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>259</v>
@@ -35062,17 +39906,17 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>87</v>
+      <c r="A25" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="10">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C25" s="10">
-        <v>-0.72399630000000004</v>
+        <v>-0.3105</v>
       </c>
       <c r="D25" s="10">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>259</v>
@@ -35088,17 +39932,17 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>40</v>
+      <c r="A26" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="B26" s="10">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C26" s="10">
-        <v>2.645</v>
+        <v>100</v>
       </c>
       <c r="D26" s="10">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>259</v>
@@ -35115,16 +39959,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="B27" s="10">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="C27" s="10">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="D27" s="10">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>259</v>
@@ -35140,17 +39984,17 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>155</v>
+      <c r="A28" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B28" s="10">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C28" s="10">
-        <v>0.01</v>
+        <v>-0.72399630000000004</v>
       </c>
       <c r="D28" s="10">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>259</v>
@@ -35167,16 +40011,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>157</v>
+        <v>335</v>
       </c>
       <c r="B29" s="10">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C29" s="10">
-        <v>0.01</v>
+        <v>2.645</v>
       </c>
       <c r="D29" s="10">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>259</v>
@@ -35193,16 +40037,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="B30" s="10">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C30" s="10">
-        <v>-0.63100000000000001</v>
+        <v>2.645</v>
       </c>
       <c r="D30" s="10">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>259</v>
@@ -35219,10 +40063,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="B31" s="10">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C31" s="10">
         <v>0.01</v>
@@ -35245,16 +40089,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="B32" s="10">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C32" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.01</v>
       </c>
       <c r="D32" s="10">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>259</v>
@@ -35270,11 +40114,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>109</v>
+      <c r="A33" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B33" s="10">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="10">
         <v>0.01</v>
@@ -35297,16 +40141,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B34" s="10">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C34" s="10">
-        <v>0.88</v>
+        <v>-0.63100000000000001</v>
       </c>
       <c r="D34" s="10">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>259</v>
@@ -35322,17 +40166,17 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>78</v>
+      <c r="A35" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B35" s="10">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C35" s="10">
-        <v>6.6</v>
+        <v>0.01</v>
       </c>
       <c r="D35" s="10">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>259</v>
@@ -35349,16 +40193,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B36" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" s="10">
-        <v>360.55099999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D36" s="10">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>259</v>
@@ -35375,16 +40219,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="B37" s="10">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C37" s="10">
-        <v>360.55099999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D37" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>259</v>
@@ -35401,16 +40245,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="B38" s="10">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C38" s="10">
-        <v>0.01</v>
+        <v>0.88</v>
       </c>
       <c r="D38" s="10">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>259</v>
@@ -35426,17 +40270,17 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>50</v>
+      <c r="A39" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B39" s="10">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C39" s="10">
-        <v>0.24</v>
+        <v>6.6</v>
       </c>
       <c r="D39" s="10">
-        <v>1320</v>
+        <v>105</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>259</v>
@@ -35452,17 +40296,17 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>158</v>
+      <c r="A40" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="B40" s="10">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C40" s="10">
-        <v>0.01</v>
+        <v>360.55099999999999</v>
       </c>
       <c r="D40" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>259</v>
@@ -35478,17 +40322,17 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>53</v>
+      <c r="A41" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="B41" s="10">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C41" s="10">
-        <v>8.09</v>
+        <v>360.55099999999999</v>
       </c>
       <c r="D41" s="10">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>259</v>
@@ -35505,16 +40349,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="B42" s="10">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C42" s="10">
-        <v>8.09</v>
+        <v>0.01</v>
       </c>
       <c r="D42" s="10">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>259</v>
@@ -35531,10 +40375,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="B43" s="10">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="10">
         <v>0.01</v>
@@ -35557,16 +40401,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B44" s="10">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C44" s="10">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="D44" s="10">
-        <v>1</v>
+        <v>1320</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>259</v>
@@ -35582,17 +40426,17 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>24</v>
+      <c r="A45" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="B45" s="10">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C45" s="10">
-        <v>-0.1704997</v>
+        <v>0.01</v>
       </c>
       <c r="D45" s="10">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>259</v>
@@ -35608,17 +40452,17 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>82</v>
+      <c r="A46" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B46" s="10">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C46" s="10">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D46" s="10">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>259</v>
@@ -35634,17 +40478,17 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>269</v>
+      <c r="A47" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B47" s="10">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C47" s="10">
-        <v>100</v>
+        <v>8.09</v>
       </c>
       <c r="D47" s="10">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>259</v>
@@ -35661,16 +40505,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B48" s="10">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C48" s="10">
-        <v>100</v>
+        <v>8.09</v>
       </c>
       <c r="D48" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>259</v>
@@ -35686,17 +40530,17 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>64</v>
+      <c r="A49" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="B49" s="10">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C49" s="10">
-        <v>9.83</v>
+        <v>0.01</v>
       </c>
       <c r="D49" s="10">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>259</v>
@@ -35713,16 +40557,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="B50" s="10">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C50" s="10">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="D50" s="10">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>259</v>
@@ -35738,17 +40582,17 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>132</v>
+      <c r="A51" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B51" s="10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C51" s="10">
-        <v>0.01</v>
+        <v>-0.1704997</v>
       </c>
       <c r="D51" s="10">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>259</v>
@@ -35765,16 +40609,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="B52" s="10">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C52" s="10">
-        <v>10</v>
+        <v>0.15</v>
       </c>
       <c r="D52" s="10">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>259</v>
@@ -35790,17 +40634,17 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>69</v>
+      <c r="A53" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="B53" s="10">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C53" s="10">
-        <v>3.74</v>
+        <v>100</v>
       </c>
       <c r="D53" s="10">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>259</v>
@@ -35817,16 +40661,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="B54" s="10">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C54" s="10">
-        <v>4.4000000000000004</v>
+        <v>100</v>
       </c>
       <c r="D54" s="10">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>259</v>
@@ -35843,16 +40687,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B55" s="10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C55" s="10">
-        <v>0.56499999999999995</v>
+        <v>9.83</v>
       </c>
       <c r="D55" s="10">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>259</v>
@@ -35869,16 +40713,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B56" s="10">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C56" s="10">
-        <v>9.5000000000000001E-2</v>
+        <v>20</v>
       </c>
       <c r="D56" s="10">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>259</v>
@@ -35894,17 +40738,17 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>264</v>
+      <c r="A57" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B57" s="10">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C57" s="10">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D57" s="10">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>259</v>
@@ -35920,17 +40764,17 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>110</v>
+      <c r="A58" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="B58" s="10">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C58" s="10">
-        <v>0.44500000000000001</v>
+        <v>10</v>
       </c>
       <c r="D58" s="10">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>259</v>
@@ -35947,16 +40791,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C59" s="10">
-        <v>0.44500000000000001</v>
+        <v>3.74</v>
       </c>
       <c r="D59" s="10">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>259</v>
@@ -35972,17 +40816,17 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>21</v>
+      <c r="A60" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="B60" s="10">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C60" s="10">
-        <v>-1.913</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D60" s="10">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>259</v>
@@ -35998,17 +40842,17 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>18</v>
+      <c r="A61" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C61" s="10">
-        <v>300</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D61" s="10">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>259</v>
@@ -36024,17 +40868,17 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>131</v>
+      <c r="A62" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="B62" s="10">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C62" s="10">
-        <v>20</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D62" s="10">
-        <v>356</v>
+        <v>185</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>259</v>
@@ -36051,16 +40895,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="B63" s="10">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C63" s="10">
-        <v>9.6363450000000004</v>
+        <v>0.04</v>
       </c>
       <c r="D63" s="10">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>259</v>
@@ -36076,17 +40920,17 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>70</v>
+      <c r="A64" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="B64" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" s="10">
-        <v>1.06</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D64" s="10">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>259</v>
@@ -36102,17 +40946,17 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>3</v>
+      <c r="A65" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B65" s="10">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C65" s="10">
-        <v>277.3116</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D65" s="10">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>259</v>
@@ -36128,17 +40972,17 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>270</v>
+      <c r="A66" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="B66" s="10">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C66" s="10">
-        <v>100</v>
+        <v>-1.913</v>
       </c>
       <c r="D66" s="10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>259</v>
@@ -36155,13 +40999,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B67" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" s="10">
-        <v>0.01</v>
+        <v>-1.913</v>
       </c>
       <c r="D67" s="10">
         <v>1</v>
@@ -36181,16 +41025,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B68" s="10">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C68" s="10">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="D68" s="10">
-        <v>450</v>
+        <v>138</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>259</v>
@@ -36206,17 +41050,17 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>22</v>
+      <c r="A69" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B69" s="10">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C69" s="10">
-        <v>-0.3105</v>
+        <v>20</v>
       </c>
       <c r="D69" s="10">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>259</v>
@@ -36233,19 +41077,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>289</v>
+        <v>4</v>
       </c>
       <c r="B70" s="10">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C70" s="10">
-        <v>0.5</v>
+        <v>9.6363450000000004</v>
       </c>
       <c r="D70" s="10">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>179</v>
@@ -36259,16 +41103,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B71" s="10">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C71" s="10">
-        <v>0.70051839999999999</v>
+        <v>1.06</v>
       </c>
       <c r="D71" s="10">
-        <v>315</v>
+        <v>85</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>259</v>
@@ -36284,17 +41128,17 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>9</v>
+      <c r="A72" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="B72" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C72" s="10">
-        <v>0.70051839999999999</v>
+        <v>277.3116</v>
       </c>
       <c r="D72" s="10">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>259</v>
@@ -36310,17 +41154,17 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>37</v>
+      <c r="A73" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="B73" s="10">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C73" s="10">
-        <v>6.76</v>
+        <v>100</v>
       </c>
       <c r="D73" s="10">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>259</v>
@@ -36336,17 +41180,17 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>13</v>
+      <c r="A74" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B74" s="10">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C74" s="10">
-        <v>6.76</v>
+        <v>0.01</v>
       </c>
       <c r="D74" s="10">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>259</v>
@@ -36363,16 +41207,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="B75" s="10">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C75" s="10">
-        <v>0.01</v>
+        <v>20</v>
       </c>
       <c r="D75" s="10">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>259</v>
@@ -36389,16 +41233,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="B76" s="10">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C76" s="10">
-        <v>20</v>
+        <v>-0.3105</v>
       </c>
       <c r="D76" s="10">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>259</v>
@@ -36415,19 +41259,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B77" s="10">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C77" s="10">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="D77" s="10">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>179</v>
@@ -36440,17 +41284,17 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>271</v>
+      <c r="A78" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B78" s="10">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C78" s="10">
-        <v>100</v>
+        <v>0.70051839999999999</v>
       </c>
       <c r="D78" s="10">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>259</v>
@@ -36466,17 +41310,17 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>142</v>
+      <c r="A79" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B79" s="10">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="C79" s="10">
-        <v>0.01</v>
+        <v>0.70051839999999999</v>
       </c>
       <c r="D79" s="10">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>259</v>
@@ -36492,17 +41336,17 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>14</v>
+      <c r="A80" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B80" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="10">
-        <v>1.05</v>
+        <v>6.76</v>
       </c>
       <c r="D80" s="10">
-        <v>500</v>
+        <v>256</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>259</v>
@@ -36518,17 +41362,17 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>20</v>
+      <c r="A81" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B81" s="10">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C81" s="10">
-        <v>-19.22</v>
+        <v>6.76</v>
       </c>
       <c r="D81" s="10">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>259</v>
@@ -36545,16 +41389,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="B82" s="10">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C82" s="10">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="D82" s="10">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>259</v>
@@ -36570,17 +41414,17 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>135</v>
+      <c r="A83" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="B83" s="10">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C83" s="10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D83" s="10">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>259</v>
@@ -36597,16 +41441,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B84" s="10">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C84" s="10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D84" s="10">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>259</v>
@@ -36623,16 +41467,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B85" s="10">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C85" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D85" s="10">
-        <v>431</v>
+        <v>100</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>259</v>
@@ -36648,11 +41492,11 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>144</v>
+      <c r="A86" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="B86" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86" s="10">
         <v>0.01</v>
@@ -36675,16 +41519,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="B87" s="10">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C87" s="10">
-        <v>1.0900000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="D87" s="10">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>259</v>
@@ -36700,14 +41544,14 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>133</v>
+      <c r="A88" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B88" s="10">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C88" s="10">
-        <v>0.01</v>
+        <v>-19.22</v>
       </c>
       <c r="D88" s="10">
         <v>1</v>
@@ -36727,16 +41571,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="B89" s="10">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C89" s="10">
-        <v>0.01</v>
+        <v>20</v>
       </c>
       <c r="D89" s="10">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>259</v>
@@ -36752,17 +41596,17 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>282</v>
+      <c r="A90" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B90" s="10">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C90" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D90" s="10">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>259</v>
@@ -36779,16 +41623,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B91" s="10">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C91" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D91" s="10">
-        <v>1360</v>
+        <v>129</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>259</v>
@@ -36804,17 +41648,17 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>137</v>
+      <c r="A92" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="B92" s="10">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C92" s="10">
-        <v>0.01</v>
+        <v>20</v>
       </c>
       <c r="D92" s="10">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>259</v>
@@ -36830,11 +41674,11 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>28</v>
+      <c r="A93" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B93" s="10">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C93" s="10">
         <v>0.01</v>
@@ -36857,16 +41701,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c r="B94" s="10">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C94" s="10">
-        <v>5.4</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D94" s="10">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>259</v>
@@ -36882,17 +41726,17 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>11</v>
+      <c r="A95" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B95" s="10">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C95" s="10">
-        <v>2.79</v>
+        <v>0.01</v>
       </c>
       <c r="D95" s="10">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>259</v>
@@ -36909,16 +41753,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="B96" s="10">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C96" s="10">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="D96" s="10">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>259</v>
@@ -36934,17 +41778,17 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>134</v>
+      <c r="A97" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="B97" s="10">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C97" s="10">
-        <v>0.01</v>
+        <v>20</v>
       </c>
       <c r="D97" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>259</v>
@@ -36960,17 +41804,17 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>129</v>
+      <c r="A98" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="B98" s="10">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C98" s="10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D98" s="10">
-        <v>190</v>
+        <v>1360</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>259</v>
@@ -36986,17 +41830,17 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>5</v>
+      <c r="A99" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B99" s="10">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C99" s="10">
-        <v>99.634469999999993</v>
+        <v>0.01</v>
       </c>
       <c r="D99" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>259</v>
@@ -37013,16 +41857,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="B100" s="10">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C100" s="10">
-        <v>23</v>
+        <v>0.01</v>
       </c>
       <c r="D100" s="10">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>259</v>
@@ -37039,16 +41883,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="B101" s="10">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C101" s="10">
-        <v>0.01</v>
+        <v>5.4</v>
       </c>
       <c r="D101" s="10">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>259</v>
@@ -37064,17 +41908,17 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>79</v>
+      <c r="A102" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B102" s="10">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C102" s="10">
-        <v>0.30499999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="D102" s="10">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>259</v>
@@ -37090,17 +41934,17 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>111</v>
+      <c r="A103" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="B103" s="10">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C103" s="10">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="D103" s="10">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>259</v>
@@ -37116,11 +41960,11 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>151</v>
+      <c r="A104" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B104" s="10">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C104" s="10">
         <v>0.01</v>
@@ -37142,17 +41986,17 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
-        <v>6</v>
+      <c r="A105" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B105" s="10">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C105" s="10">
-        <v>74.802319999999995</v>
+        <v>100</v>
       </c>
       <c r="D105" s="10">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>259</v>
@@ -37169,16 +42013,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="B106" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C106" s="10">
-        <v>4.55</v>
+        <v>99.634469999999993</v>
       </c>
       <c r="D106" s="10">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>259</v>
@@ -37195,16 +42039,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="B107" s="10">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C107" s="10">
-        <v>0.01</v>
+        <v>23</v>
       </c>
       <c r="D107" s="10">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>259</v>
@@ -37221,13 +42065,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="B108" s="10">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C108" s="10">
-        <v>-0.63100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D108" s="10">
         <v>1</v>
@@ -37246,17 +42090,17 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>107</v>
+      <c r="A109" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B109" s="10">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C109" s="10">
-        <v>2.4</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D109" s="10">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>259</v>
@@ -37273,16 +42117,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B110" s="10">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C110" s="10">
-        <v>2.4</v>
+        <v>19.7</v>
       </c>
       <c r="D110" s="10">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>259</v>
@@ -37298,17 +42142,17 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>130</v>
+      <c r="A111" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="B111" s="10">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C111" s="10">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="D111" s="10">
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>259</v>
@@ -37324,17 +42168,17 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>145</v>
+      <c r="A112" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B112" s="10">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C112" s="10">
-        <v>20</v>
+        <v>74.802319999999995</v>
       </c>
       <c r="D112" s="10">
-        <v>420</v>
+        <v>39</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>259</v>
@@ -37349,18 +42193,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B113" s="10">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C113" s="10">
-        <v>1.8102640000000001</v>
+        <v>4.55</v>
       </c>
       <c r="D113" s="10">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>259</v>
@@ -37375,21 +42219,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B114" s="10">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C114" s="10">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="D114" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>179</v>
@@ -37401,15 +42245,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="B115" s="10">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C115" s="10">
-        <v>0.01</v>
+        <v>-0.63100000000000001</v>
       </c>
       <c r="D115" s="10">
         <v>1</v>
@@ -37427,18 +42271,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="B116" s="10">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C116" s="10">
-        <v>0.56000000000000005</v>
+        <v>2.4</v>
       </c>
       <c r="D116" s="10">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>259</v>
@@ -37453,18 +42297,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>273</v>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B117" s="10">
+        <v>51</v>
+      </c>
+      <c r="C117" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="D117" s="10">
         <v>56</v>
-      </c>
-      <c r="C117" s="10">
-        <v>3.36</v>
-      </c>
-      <c r="D117" s="10">
-        <v>102</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>259</v>
@@ -37479,18 +42323,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>288</v>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B118" s="10">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C118" s="10">
-        <v>0.01</v>
+        <v>20</v>
       </c>
       <c r="D118" s="10">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>259</v>
@@ -37505,18 +42349,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>55</v>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B119" s="10">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C119" s="10">
-        <v>1.96</v>
+        <v>20</v>
       </c>
       <c r="D119" s="10">
-        <v>145</v>
+        <v>420</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>259</v>
@@ -37531,9 +42375,581 @@
         <v>0</v>
       </c>
     </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="10">
+        <v>5</v>
+      </c>
+      <c r="C120" s="10">
+        <v>1.8102640000000001</v>
+      </c>
+      <c r="D120" s="10">
+        <v>312</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G120" s="11">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H120" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="10">
+        <v>68</v>
+      </c>
+      <c r="C121" s="10">
+        <v>20</v>
+      </c>
+      <c r="D121" s="10">
+        <v>2</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G121" s="11">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H121" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" s="10">
+        <v>110</v>
+      </c>
+      <c r="C122" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D122" s="10">
+        <v>1</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G122" s="11">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H122" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="10">
+        <v>28</v>
+      </c>
+      <c r="C123" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D123" s="10">
+        <v>364</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G123" s="11">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H123" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B124" s="10">
+        <v>56</v>
+      </c>
+      <c r="C124" s="10">
+        <v>3.36</v>
+      </c>
+      <c r="D124" s="10">
+        <v>102</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G124" s="11">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H124" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B125" s="10">
+        <v>89</v>
+      </c>
+      <c r="C125" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D125" s="10">
+        <v>1</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G125" s="11">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H125" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B126" s="10">
+        <v>15</v>
+      </c>
+      <c r="C126" s="10">
+        <v>1.96</v>
+      </c>
+      <c r="D126" s="10">
+        <v>145</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G126" s="11">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H126" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B127" s="15">
+        <v>111</v>
+      </c>
+      <c r="C127" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D127" s="15">
+        <v>145</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G127" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H127" s="15">
+        <v>0</v>
+      </c>
+      <c r="I127" t="str">
+        <f>"new RawMaterial { RawMaterialId = "&amp;B127&amp;", Name = """&amp;A127&amp;""", StockQuantity = 0.01f, CP = 1m, Unit = ""kg"", CreatedById = UserId, CreatedOn = CurrentTime },"</f>
+        <v>new RawMaterial { RawMaterialId = 111, Name = "Black Pepper", StockQuantity = 0.01f, CP = 1m, Unit = "kg", CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B128" s="15">
+        <v>112</v>
+      </c>
+      <c r="C128" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D128" s="15">
+        <v>145</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G128" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H128" s="15">
+        <v>0</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" ref="I128:I135" si="0">"new RawMaterial { RawMaterialId = "&amp;B128&amp;", Name = """&amp;A128&amp;""", StockQuantity = 0.01f, CP = 1m, Unit = ""kg"", CreatedById = UserId, CreatedOn = CurrentTime },"</f>
+        <v>new RawMaterial { RawMaterialId = 112, Name = "Cake Pwdr", StockQuantity = 0.01f, CP = 1m, Unit = "kg", CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B129" s="15">
+        <v>113</v>
+      </c>
+      <c r="C129" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D129" s="15">
+        <v>145</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G129" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H129" s="15">
+        <v>0</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="0"/>
+        <v>new RawMaterial { RawMaterialId = 113, Name = "Colorome", StockQuantity = 0.01f, CP = 1m, Unit = "kg", CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B130" s="15">
+        <v>114</v>
+      </c>
+      <c r="C130" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D130" s="15">
+        <v>145</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G130" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H130" s="15">
+        <v>0</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="0"/>
+        <v>new RawMaterial { RawMaterialId = 114, Name = "Cream ", StockQuantity = 0.01f, CP = 1m, Unit = "kg", CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B131" s="15">
+        <v>115</v>
+      </c>
+      <c r="C131" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D131" s="15">
+        <v>145</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G131" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H131" s="15">
+        <v>0</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="0"/>
+        <v>new RawMaterial { RawMaterialId = 115, Name = "Dalda", StockQuantity = 0.01f, CP = 1m, Unit = "kg", CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B132" s="15">
+        <v>116</v>
+      </c>
+      <c r="C132" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D132" s="15">
+        <v>145</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G132" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H132" s="15">
+        <v>0</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="0"/>
+        <v>new RawMaterial { RawMaterialId = 116, Name = "Green chilly", StockQuantity = 0.01f, CP = 1m, Unit = "kg", CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B133" s="15">
+        <v>117</v>
+      </c>
+      <c r="C133" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D133" s="15">
+        <v>145</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G133" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H133" s="15">
+        <v>0</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="0"/>
+        <v>new RawMaterial { RawMaterialId = 117, Name = "Garlic", StockQuantity = 0.01f, CP = 1m, Unit = "kg", CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B134" s="15">
+        <v>118</v>
+      </c>
+      <c r="C134" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D134" s="15">
+        <v>145</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F134" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G134" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H134" s="15">
+        <v>0</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="0"/>
+        <v>new RawMaterial { RawMaterialId = 118, Name = "Puthina Leaves", StockQuantity = 0.01f, CP = 1m, Unit = "kg", CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B135" s="15">
+        <v>119</v>
+      </c>
+      <c r="C135" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D135" s="15">
+        <v>145</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G135" s="16">
+        <v>45840.241561608796</v>
+      </c>
+      <c r="H135" s="15">
+        <v>0</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="0"/>
+        <v>new RawMaterial { RawMaterialId = 119, Name = "White Elu", StockQuantity = 0.01f, CP = 1m, Unit = "kg", CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H119">
-    <sortCondition ref="A2:A119"/>
+  <autoFilter ref="A1:H135" xr:uid="{6A3AAD5E-244A-4B33-91E2-D91889D4DAA2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H126">
+    <sortCondition ref="A2:A126"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9F4272-D908-4972-87D7-E22E2E93D898}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
